--- a/SeriousGame/planning.xlsx
+++ b/SeriousGame/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Chronologie du projet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Position</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Rapport Finale</t>
+  </si>
+  <si>
+    <t>Penser à des questions chaques semaines</t>
   </si>
 </sst>
 </file>
@@ -802,7 +805,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4248,7 +4250,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4406,7 +4407,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{59A4423E-88FA-4A5C-B690-02023969DB8D}</c15:txfldGUID>
+                      <c15:txfldGUID>{C08AF001-923A-4DB2-9016-53A33A17E65D}</c15:txfldGUID>
                       <c15:f>calculs!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4446,7 +4447,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{466D5F0A-6016-4463-B621-EBCBDAD84F9F}</c15:txfldGUID>
+                      <c15:txfldGUID>{870A35A3-B217-41E0-A015-A26C76752FD7}</c15:txfldGUID>
                       <c15:f>calculs!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4486,7 +4487,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3D2CB1AB-4656-4292-B2F2-AE04F072AB17}</c15:txfldGUID>
+                      <c15:txfldGUID>{04491877-71ED-4C22-9F29-A6698045193D}</c15:txfldGUID>
                       <c15:f>calculs!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4526,7 +4527,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{96C1D9C6-D49C-4C13-A19D-FFAB23801374}</c15:txfldGUID>
+                      <c15:txfldGUID>{775DCD10-8345-4ECB-AF7C-6B81BED00867}</c15:txfldGUID>
                       <c15:f>calculs!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4566,7 +4567,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9192558D-ADA2-4499-AF36-74D2D05FB89D}</c15:txfldGUID>
+                      <c15:txfldGUID>{7A823177-CA4A-4FDA-A9D3-5DE6BBEC186F}</c15:txfldGUID>
                       <c15:f>calculs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4606,7 +4607,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9D7A246A-21AF-4F28-A45D-2101DBF28DD2}</c15:txfldGUID>
+                      <c15:txfldGUID>{EAAA8DE6-4974-49C5-A6A6-9C12D61136CB}</c15:txfldGUID>
                       <c15:f>calculs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4646,7 +4647,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2A02B322-EA09-4DB4-A1D1-8F3937E6BC23}</c15:txfldGUID>
+                      <c15:txfldGUID>{254761CD-11E5-44B3-81CC-6C413BFB2882}</c15:txfldGUID>
                       <c15:f>calculs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4686,7 +4687,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5E6DABE2-CB2A-40CF-A62E-109BEA399828}</c15:txfldGUID>
+                      <c15:txfldGUID>{8F02E4ED-D31D-4E63-AFCA-1BB163B2E631}</c15:txfldGUID>
                       <c15:f>calculs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4726,7 +4727,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1E7574D6-E30F-42C2-A2B8-3610FC810CD3}</c15:txfldGUID>
+                      <c15:txfldGUID>{FCA26983-A00E-4345-9947-F48F682E33E5}</c15:txfldGUID>
                       <c15:f>calculs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4766,7 +4767,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DF436FED-F32A-41B0-96B5-99F60EB9C36D}</c15:txfldGUID>
+                      <c15:txfldGUID>{8B2274D6-7802-459B-A2CF-C1F7A2B9551E}</c15:txfldGUID>
                       <c15:f>calculs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4806,7 +4807,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{663699F2-BF2E-4C71-B4AF-C5F135DB31AE}</c15:txfldGUID>
+                      <c15:txfldGUID>{F31663BA-D0E6-4A3B-9FC0-7EE0B72B91B7}</c15:txfldGUID>
                       <c15:f>calculs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4846,7 +4847,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B529B7D0-E4FB-4459-B372-4ABFADF21B8A}</c15:txfldGUID>
+                      <c15:txfldGUID>{5F762BA1-8F2F-40E9-988A-58A1765E6709}</c15:txfldGUID>
                       <c15:f>calculs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4886,7 +4887,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E43CA451-D485-4A41-8FCB-3328A832BA11}</c15:txfldGUID>
+                      <c15:txfldGUID>{169332BE-7FB9-4436-A19C-CB98A50F699A}</c15:txfldGUID>
                       <c15:f>calculs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4926,7 +4927,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C687028-F802-4AE5-AF09-DF87602CDABD}</c15:txfldGUID>
+                      <c15:txfldGUID>{B3BBBE84-0660-4D5E-A20C-A39AE8DDB5F7}</c15:txfldGUID>
                       <c15:f>calculs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4966,7 +4967,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DE7F2D7-6558-4C02-8A8B-94159CB88A14}</c15:txfldGUID>
+                      <c15:txfldGUID>{15C1676E-71F3-4F8F-AFD1-0484A9832EB3}</c15:txfldGUID>
                       <c15:f>calculs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5006,7 +5007,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B73D62DE-E8FA-4ACD-8EFE-7B0BFE47F497}</c15:txfldGUID>
+                      <c15:txfldGUID>{7A77E39A-2554-4AE2-B623-B38A50AE824D}</c15:txfldGUID>
                       <c15:f>calculs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5046,7 +5047,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5389725F-A7E5-41C4-B8B6-B3F384D26FE8}</c15:txfldGUID>
+                      <c15:txfldGUID>{041DDC01-E4C0-49AD-BA9D-56241EA25CDC}</c15:txfldGUID>
                       <c15:f>calculs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5086,7 +5087,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{080D4A0C-AACA-42E5-9AE5-BBCF73CDABAF}</c15:txfldGUID>
+                      <c15:txfldGUID>{1C75C6B4-3DC3-41EE-BD47-F6450756B708}</c15:txfldGUID>
                       <c15:f>calculs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5126,7 +5127,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FA9FAFF1-A5A1-4BCC-8B3C-86217E065660}</c15:txfldGUID>
+                      <c15:txfldGUID>{AE2AF8B9-4EC5-4065-8B16-398B1513FCB0}</c15:txfldGUID>
                       <c15:f>calculs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5166,7 +5167,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{684CC1F3-2939-4083-9BDD-49E8F5820195}</c15:txfldGUID>
+                      <c15:txfldGUID>{112B2019-F156-4250-BDC5-F25E39FE828C}</c15:txfldGUID>
                       <c15:f>calculs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5206,7 +5207,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF3849FF-77F7-488B-8726-9205C52844BE}</c15:txfldGUID>
+                      <c15:txfldGUID>{836303AF-3C94-4439-A356-BBDB5B38D474}</c15:txfldGUID>
                       <c15:f>calculs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5246,7 +5247,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8AAF4FB0-EB5C-4E45-994B-9CD177D6372A}</c15:txfldGUID>
+                      <c15:txfldGUID>{CC265BB0-A6BA-4A12-8DB2-94A2D2ACC03C}</c15:txfldGUID>
                       <c15:f>calculs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5286,7 +5287,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1473D2A2-3381-49A2-94F3-E04A7EC1AC41}</c15:txfldGUID>
+                      <c15:txfldGUID>{E58427F5-1403-461B-AE0E-3C5551B8CCE4}</c15:txfldGUID>
                       <c15:f>calculs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5326,7 +5327,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B7766D84-5CDB-478A-AAED-7043F8088556}</c15:txfldGUID>
+                      <c15:txfldGUID>{9ED346A1-27BC-44AF-A5A8-9B3872ABAE02}</c15:txfldGUID>
                       <c15:f>calculs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5366,7 +5367,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2AFFBC6B-9116-422E-8372-33BC55F63E50}</c15:txfldGUID>
+                      <c15:txfldGUID>{F0473F0B-8E6A-42BC-A2CF-51C506CC0D34}</c15:txfldGUID>
                       <c15:f>calculs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5406,7 +5407,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{357C1ED2-9657-46A3-B8AD-9BF248EE9D99}</c15:txfldGUID>
+                      <c15:txfldGUID>{6202A90F-7208-4964-8C03-C35AA8BFF288}</c15:txfldGUID>
                       <c15:f>calculs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5446,7 +5447,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{86683644-64FA-4A8F-8F12-D92BF3A35C9C}</c15:txfldGUID>
+                      <c15:txfldGUID>{48CF5CA8-3865-4FB3-A4BC-E4B1E0F271D7}</c15:txfldGUID>
                       <c15:f>calculs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5486,7 +5487,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{497FBF3B-C37A-4AF6-9B3A-83DAC6ABA82E}</c15:txfldGUID>
+                      <c15:txfldGUID>{4122986C-F718-4B91-A9AE-8A75F30413D9}</c15:txfldGUID>
                       <c15:f>calculs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5526,7 +5527,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66B50924-172A-4904-9DBC-6795FB02D7CE}</c15:txfldGUID>
+                      <c15:txfldGUID>{3842441D-0887-4C41-9F8F-F1F10B380140}</c15:txfldGUID>
                       <c15:f>calculs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5566,7 +5567,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1FF35407-A208-4D50-B0C1-F7C890C1DFEF}</c15:txfldGUID>
+                      <c15:txfldGUID>{A74603FE-81A1-42D6-85C7-3CD5A9163DCA}</c15:txfldGUID>
                       <c15:f>calculs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5753,7 +5754,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{504596E7-D2B1-45DF-BAFF-A331BA8F65CB}</c15:txfldGUID>
+                      <c15:txfldGUID>{653DA37F-5329-4C34-B354-8C6463BC5879}</c15:txfldGUID>
                       <c15:f>calculs!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5793,7 +5794,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{20789679-02DF-45F8-B56A-41520B431F0A}</c15:txfldGUID>
+                      <c15:txfldGUID>{15046BA4-44AC-4279-A882-92227CFBCE95}</c15:txfldGUID>
                       <c15:f>calculs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5833,7 +5834,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0083EA3B-7594-409E-B63D-5DF5485F6955}</c15:txfldGUID>
+                      <c15:txfldGUID>{E12E0FB3-8AAE-4CD2-AF46-A40B69F79816}</c15:txfldGUID>
                       <c15:f>calculs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5873,7 +5874,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1910E60D-CBEE-4AEA-84B5-541CCD9E0618}</c15:txfldGUID>
+                      <c15:txfldGUID>{6EB3BF90-D2BE-40D8-966A-E578965611B9}</c15:txfldGUID>
                       <c15:f>calculs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5913,7 +5914,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{39AA0F6C-8E78-4CF0-ADBD-42A61F93B330}</c15:txfldGUID>
+                      <c15:txfldGUID>{E7037486-96FD-4391-9231-7C06CD2C65CB}</c15:txfldGUID>
                       <c15:f>calculs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5953,7 +5954,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6F97CC2B-5FFD-4DB4-AA97-B793C342C7C6}</c15:txfldGUID>
+                      <c15:txfldGUID>{A737E05E-2D14-4231-8B6A-188578E50E78}</c15:txfldGUID>
                       <c15:f>calculs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5993,7 +5994,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8BAF5F63-AAEE-490A-AAE9-236813E98DFF}</c15:txfldGUID>
+                      <c15:txfldGUID>{01DA69DC-E712-4FB0-9F56-993A88D59D56}</c15:txfldGUID>
                       <c15:f>calculs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6033,7 +6034,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A9CB85AE-E4FE-4BF1-96BD-600EE2ACAC15}</c15:txfldGUID>
+                      <c15:txfldGUID>{FB2819D5-57C1-47D0-8EE9-08EF21CDADC1}</c15:txfldGUID>
                       <c15:f>calculs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6073,7 +6074,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FE806EDB-2272-4B67-98A4-D4EDBC9AC277}</c15:txfldGUID>
+                      <c15:txfldGUID>{6A901B11-2992-4DDD-8A09-A103C18A3C26}</c15:txfldGUID>
                       <c15:f>calculs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6113,7 +6114,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7CEEED61-69F0-44BF-9B2A-300CA4246A94}</c15:txfldGUID>
+                      <c15:txfldGUID>{3ACAEAA2-2D6F-4A6A-BA29-89E870BFFC38}</c15:txfldGUID>
                       <c15:f>calculs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6153,7 +6154,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{176C54A1-C82A-4DED-BBA3-C92D00D13C2D}</c15:txfldGUID>
+                      <c15:txfldGUID>{48897870-23BA-4426-8781-D354A461086A}</c15:txfldGUID>
                       <c15:f>calculs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6193,7 +6194,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ED7E24E7-A6A9-49D2-AE95-336F51AFE7C6}</c15:txfldGUID>
+                      <c15:txfldGUID>{9A585AF3-1D11-4174-9479-69AF86B71426}</c15:txfldGUID>
                       <c15:f>calculs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6233,7 +6234,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D3BEB8CD-E81B-4A79-9EB0-C70B18519636}</c15:txfldGUID>
+                      <c15:txfldGUID>{A68AC23F-26B0-4763-99F7-37B9AD859C41}</c15:txfldGUID>
                       <c15:f>calculs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6273,7 +6274,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF31F26E-5B21-4AF8-B66D-742D873790AD}</c15:txfldGUID>
+                      <c15:txfldGUID>{D56C8DC5-E4A0-4057-BAF9-7F308DE37851}</c15:txfldGUID>
                       <c15:f>calculs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6313,7 +6314,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B9E15F9B-FF2E-4D36-8133-CA247681A264}</c15:txfldGUID>
+                      <c15:txfldGUID>{6F3A0176-5834-4F58-B72C-BB14C3EE292A}</c15:txfldGUID>
                       <c15:f>calculs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6353,7 +6354,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ECF7FF5B-BD5D-48F9-B80B-8498545E1D20}</c15:txfldGUID>
+                      <c15:txfldGUID>{378A83C8-43BD-4D6E-8660-739E5A869337}</c15:txfldGUID>
                       <c15:f>calculs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6393,7 +6394,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4AB9EE18-E2D4-42A3-ABB6-5F1AD1E8925A}</c15:txfldGUID>
+                      <c15:txfldGUID>{0EABEEA1-BBFC-4079-89BC-F01DBA2B7D86}</c15:txfldGUID>
                       <c15:f>calculs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6433,7 +6434,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9D1EF065-CC7E-4A5E-AAAB-6E57A8A46304}</c15:txfldGUID>
+                      <c15:txfldGUID>{CFEEED1C-6738-4535-BC22-A491E7AEBBEE}</c15:txfldGUID>
                       <c15:f>calculs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6473,7 +6474,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9BE16609-13FE-4522-A92D-D4A204223638}</c15:txfldGUID>
+                      <c15:txfldGUID>{E31B05F3-BC92-4275-8BAE-DF815C2CBC59}</c15:txfldGUID>
                       <c15:f>calculs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6513,7 +6514,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{498DD147-C294-4DF7-8436-59A964B2E6E9}</c15:txfldGUID>
+                      <c15:txfldGUID>{2EA8F596-9EA1-4A2E-AB5A-6DB0D0E17129}</c15:txfldGUID>
                       <c15:f>calculs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6553,7 +6554,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5DE01354-B93D-460D-8B0B-AA2ED77AA9A9}</c15:txfldGUID>
+                      <c15:txfldGUID>{B3440B06-6E7A-476D-8206-A4C405C4ACD9}</c15:txfldGUID>
                       <c15:f>calculs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6593,7 +6594,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{22D825F4-3504-4AC3-AD41-AA72F8D724AE}</c15:txfldGUID>
+                      <c15:txfldGUID>{A573D83A-4CE5-454B-8AD5-9FFD54E1DCA9}</c15:txfldGUID>
                       <c15:f>calculs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6633,7 +6634,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BEBB141B-2C76-489B-A1F0-0D72F4C15771}</c15:txfldGUID>
+                      <c15:txfldGUID>{9F8C3BE4-4324-4EC4-90C4-DAF36CA3A39C}</c15:txfldGUID>
                       <c15:f>calculs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6673,7 +6674,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F9804DD6-0E41-4702-8B0A-E878BE785453}</c15:txfldGUID>
+                      <c15:txfldGUID>{11CD3657-0F42-4919-85C0-3125A67CADF5}</c15:txfldGUID>
                       <c15:f>calculs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6713,7 +6714,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FB5B2108-C3C4-4986-9D4D-65BDC6777291}</c15:txfldGUID>
+                      <c15:txfldGUID>{44978BB5-0E50-4EBA-8202-48BCD84397EF}</c15:txfldGUID>
                       <c15:f>calculs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6753,7 +6754,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C638EE23-89A0-4EA7-82E9-04A658654D90}</c15:txfldGUID>
+                      <c15:txfldGUID>{9F6FD5E2-1136-4B32-8622-CAB514C71637}</c15:txfldGUID>
                       <c15:f>calculs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6793,7 +6794,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2A5B10B1-18EA-4228-8E73-7F674BAD7BD4}</c15:txfldGUID>
+                      <c15:txfldGUID>{66AC1CFF-F858-48E0-8370-243E72CA1E0F}</c15:txfldGUID>
                       <c15:f>calculs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6833,7 +6834,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4E286CC0-F0F4-428C-A88C-BDE8277A6BB2}</c15:txfldGUID>
+                      <c15:txfldGUID>{7E8575CD-E9D0-4EB4-9808-DAD7C4478226}</c15:txfldGUID>
                       <c15:f>calculs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6873,7 +6874,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C8BCE42D-361A-4662-9E23-6A6D92B7FD6A}</c15:txfldGUID>
+                      <c15:txfldGUID>{4CBCA7BA-842A-4C2E-AFD1-26011B39C459}</c15:txfldGUID>
                       <c15:f>calculs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6913,7 +6914,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{74DF7E0B-DC7E-41DD-B07D-5A36FC5BB306}</c15:txfldGUID>
+                      <c15:txfldGUID>{3B7881BA-8525-47AB-B847-7771FB97BEF5}</c15:txfldGUID>
                       <c15:f>calculs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7318,11 +7319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142530720"/>
-        <c:axId val="192535672"/>
+        <c:axId val="153183936"/>
+        <c:axId val="153184328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="142530720"/>
+        <c:axId val="153183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7345,14 +7346,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192535672"/>
+        <c:crossAx val="153184328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="192535672"/>
+        <c:axId val="153184328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7364,7 +7365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142530720"/>
+        <c:crossAx val="153183936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7745,8 +7746,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J12:J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7832,7 +7833,9 @@
         <v>42933</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
@@ -12665,6 +12668,143 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <AssetExpire xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TPFriendlyName xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <IntlLangReview xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">845883</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <SubmitterId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <AcquiredFrom xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <Markets xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
+    <OriginAsset xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <AssetStart xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">2012-06-28T22:28:09+00:00</AssetStart>
+    <FriendlyTitle xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <MarketSpecific xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</MarketSpecific>
+    <TPNamespace xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <Value>494452</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <OpenTemplate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
+    <Manager xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <NumericId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <ParentAssetId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">InProgress</ApprovalStatus>
+    <TPComponent xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <EditorialTags xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TPExecutable xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <LocComments xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <SourceTitle xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <CSXUpdate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</CSXUpdate>
+    <IntlLocPriority xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <AssetType xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <MachineTranslated xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</MachineTranslated>
+    <OutputCachingOn xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</OutputCachingOn>
+    <TemplateStatus xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Complete</TemplateStatus>
+    <IsSearchable xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</IsSearchable>
+    <ContentItem xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <ShowIn xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <UALocComments xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <UALocRecommendation xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <LegacyData xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <ClipArtFilename xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TPApplication xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <CSXHash xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <Downloads xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">0</Downloads>
+    <ArtSampleDocs xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TrustLevel xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <Providers xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <TPAppVersion xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <VoteCount xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <AverageRating xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <UACurrentWords xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <AssetId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">TP102929977</AssetId>
+    <TPClientViewer xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <DSATActionTaken xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <APEditor xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <OOCacheId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <IsDeleted xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</IsDeleted>
+    <PublishTargets xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <BugNumber xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <Milestone xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <OriginalRelease xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">15</OriginalRelease>
+    <RecommendationsModifier xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
+    <Component xmlns="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2" xsi:nil="true"/>
+    <Description0 xmlns="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x01010069924D1ECC420D47A2456556BC94F7370400BDF4491DEA4973499845289601F88B9F" ma:contentTypeVersion="55" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41eb558a2b826e6e4f9defd990175bec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d93d202-47fc-4405-873a-cab67cc5f1b2" xmlns:ns3="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19deea0185cf7bc57eee9b90b1ba2ace" ns2:_="" ns3:_="">
     <xsd:import namespace="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
@@ -13723,144 +13863,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8480B7C-74B5-4356-BE3E-F349192742C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2"/>
+    <ds:schemaRef ds:uri="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <AssetExpire xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TPFriendlyName xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <IntlLangReview xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">845883</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <SubmitterId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <AcquiredFrom xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <Markets xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
-    <OriginAsset xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <AssetStart xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">2012-06-28T22:28:09+00:00</AssetStart>
-    <FriendlyTitle xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <MarketSpecific xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</MarketSpecific>
-    <TPNamespace xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <Value>494452</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <OpenTemplate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
-    <Manager xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <NumericId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <ParentAssetId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">InProgress</ApprovalStatus>
-    <TPComponent xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <EditorialTags xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TPExecutable xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <LocComments xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <SourceTitle xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <CSXUpdate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</CSXUpdate>
-    <IntlLocPriority xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <AssetType xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <MachineTranslated xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</MachineTranslated>
-    <OutputCachingOn xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</OutputCachingOn>
-    <TemplateStatus xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Complete</TemplateStatus>
-    <IsSearchable xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</IsSearchable>
-    <ContentItem xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <ShowIn xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <UALocComments xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <UALocRecommendation xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <LegacyData xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <ClipArtFilename xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TPApplication xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <CSXHash xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <Downloads xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">0</Downloads>
-    <ArtSampleDocs xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TrustLevel xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <Providers xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <TPAppVersion xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <VoteCount xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <AverageRating xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <UACurrentWords xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <AssetId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">TP102929977</AssetId>
-    <TPClientViewer xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <DSATActionTaken xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <APEditor xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <OOCacheId xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <IsDeleted xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</IsDeleted>
-    <PublishTargets xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <BugNumber xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <Milestone xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <OriginalRelease xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">15</OriginalRelease>
-    <RecommendationsModifier xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="6d93d202-47fc-4405-873a-cab67cc5f1b2" xsi:nil="true"/>
-    <Component xmlns="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2" xsi:nil="true"/>
-    <Description0 xmlns="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD552CE-B979-4BDB-9FB1-264C1B806DC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA58A6E-2E90-4593-B4DC-28402E0A25AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13877,23 +13905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD552CE-B979-4BDB-9FB1-264C1B806DC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8480B7C-74B5-4356-BE3E-F349192742C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6d93d202-47fc-4405-873a-cab67cc5f1b2"/>
-    <ds:schemaRef ds:uri="64acb2c5-0a2b-4bda-bd34-58e36cbb80d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>